--- a/2.xlsx
+++ b/2.xlsx
@@ -11,8 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,12 +371,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -397,6 +397,21 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
